--- a/data/workbook-data-v2.xlsx
+++ b/data/workbook-data-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\courses\qmsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F977F-2689-42FE-B60B-1C98B301456B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCFEF1-A3FF-4458-8EF0-3B7058F788D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10164,7 +10164,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10195,13 +10195,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="63">
-        <v>83155594</v>
+        <v>83155787</v>
       </c>
       <c r="B2" s="63">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>801</v>
@@ -10213,13 +10213,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="63">
-        <v>60603717</v>
+        <v>51012028</v>
       </c>
       <c r="B3" s="63">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>801</v>
@@ -10231,10 +10231,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="63">
-        <v>83155787</v>
+        <v>70151417</v>
       </c>
       <c r="B4" s="63">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>888</v>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="63">
-        <v>51012028</v>
+        <v>83214865</v>
       </c>
       <c r="B5" s="63">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>888</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="63">
-        <v>70151417</v>
+        <v>60603774</v>
       </c>
       <c r="B6" s="63">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>888</v>
@@ -10285,13 +10285,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="63">
-        <v>83214865</v>
+        <v>83155594</v>
       </c>
       <c r="B7" s="63">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D7" s="78" t="s">
         <v>801</v>
@@ -10303,13 +10303,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="63">
-        <v>60603774</v>
+        <v>60603717</v>
       </c>
       <c r="B8" s="63">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>801</v>
@@ -10354,13 +10354,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="77">
-        <v>83626469</v>
+        <v>83626760</v>
       </c>
       <c r="B11" s="77">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D11" s="78" t="s">
         <v>802</v>
@@ -10370,11 +10370,11 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="77">
-        <v>83626760</v>
+      <c r="A12" s="77" t="s">
+        <v>806</v>
       </c>
       <c r="B12" s="77">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>888</v>
@@ -10388,13 +10388,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="77">
-        <v>83626854</v>
+        <v>83186518</v>
       </c>
       <c r="B13" s="77">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>802</v>
@@ -10405,13 +10405,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="77">
-        <v>83626814</v>
+        <v>83626523</v>
       </c>
       <c r="B14" s="77">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D14" s="78" t="s">
         <v>802</v>
@@ -10420,11 +10420,11 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="77" t="s">
-        <v>806</v>
+      <c r="A15" s="77">
+        <v>70041564</v>
       </c>
       <c r="B15" s="77">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>888</v>
@@ -10437,13 +10437,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="77">
-        <v>83626838</v>
+        <v>51012003</v>
       </c>
       <c r="B16" s="77">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D16" s="78" t="s">
         <v>802</v>
@@ -10453,13 +10453,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="77">
-        <v>83186518</v>
+        <v>83626469</v>
       </c>
       <c r="B17" s="77">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D17" s="78" t="s">
         <v>802</v>
@@ -10469,13 +10469,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="77">
-        <v>83626523</v>
+        <v>83626854</v>
       </c>
       <c r="B18" s="77">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D18" s="78" t="s">
         <v>802</v>
@@ -10485,13 +10485,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="77">
-        <v>70041564</v>
+        <v>83626814</v>
       </c>
       <c r="B19" s="77">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D19" s="78" t="s">
         <v>802</v>
@@ -10501,10 +10501,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="77">
-        <v>83626851</v>
+        <v>83626838</v>
       </c>
       <c r="B20" s="77">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>887</v>
@@ -10517,10 +10517,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="77">
-        <v>83186724</v>
+        <v>83626851</v>
       </c>
       <c r="B21" s="77">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>887</v>
@@ -10533,13 +10533,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="77">
-        <v>51012003</v>
+        <v>83186724</v>
       </c>
       <c r="B22" s="77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>802</v>
@@ -10549,13 +10549,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="63">
-        <v>45770209</v>
+        <v>83786905</v>
       </c>
       <c r="B23" s="63">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>803</v>
@@ -10565,10 +10565,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="63">
-        <v>83786905</v>
+        <v>83786849</v>
       </c>
       <c r="B24" s="63">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>888</v>
@@ -10581,10 +10581,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="63">
-        <v>83786849</v>
+        <v>74322544</v>
       </c>
       <c r="B25" s="63">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C25" s="63" t="s">
         <v>888</v>
@@ -10595,13 +10595,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="63">
-        <v>83341924</v>
+        <v>83625624</v>
       </c>
       <c r="B26" s="63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>803</v>
@@ -10609,10 +10609,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="63">
-        <v>74322544</v>
+        <v>83341892</v>
       </c>
       <c r="B27" s="63">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>888</v>
@@ -10623,13 +10623,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="63">
-        <v>51012446</v>
+        <v>83786922</v>
       </c>
       <c r="B28" s="63">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>803</v>
@@ -10637,13 +10637,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="63">
-        <v>83186728</v>
+        <v>76717835</v>
       </c>
       <c r="B29" s="63">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>803</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="63">
-        <v>83625624</v>
+        <v>83267977</v>
       </c>
       <c r="B30" s="63">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>888</v>
@@ -10664,11 +10664,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="63">
-        <v>83341892</v>
+      <c r="A31" s="63" t="s">
+        <v>807</v>
       </c>
       <c r="B31" s="63">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C31" s="63" t="s">
         <v>888</v>
@@ -10679,10 +10679,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="63">
-        <v>83786922</v>
+        <v>83341943</v>
       </c>
       <c r="B32" s="63">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C32" s="63" t="s">
         <v>888</v>
@@ -10693,27 +10693,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="63">
-        <v>83341907</v>
+        <v>83627280</v>
       </c>
       <c r="B33" s="63">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="63">
-        <v>51012445</v>
+      <c r="A34" s="63" t="s">
+        <v>808</v>
       </c>
       <c r="B34" s="63">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D34" s="47" t="s">
         <v>803</v>
@@ -10721,10 +10721,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="63">
-        <v>76717835</v>
+        <v>83994309</v>
       </c>
       <c r="B35" s="63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="63" t="s">
         <v>888</v>
@@ -10735,13 +10735,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="63">
-        <v>83267977</v>
+        <v>45770209</v>
       </c>
       <c r="B36" s="63">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>803</v>
@@ -10749,10 +10749,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="63">
-        <v>83341914</v>
+        <v>83341924</v>
       </c>
       <c r="B37" s="63">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C37" s="63" t="s">
         <v>887</v>
@@ -10762,14 +10762,14 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="63" t="s">
-        <v>807</v>
+      <c r="A38" s="63">
+        <v>51012446</v>
       </c>
       <c r="B38" s="63">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>803</v>
@@ -10777,13 +10777,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="63">
-        <v>83341943</v>
+        <v>83186728</v>
       </c>
       <c r="B39" s="63">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>803</v>
@@ -10791,10 +10791,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="63">
-        <v>83341920</v>
+        <v>83341907</v>
       </c>
       <c r="B40" s="63">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C40" s="63" t="s">
         <v>887</v>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="63">
-        <v>83627280</v>
+        <v>51012445</v>
       </c>
       <c r="B41" s="63">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>803</v>
@@ -10819,10 +10819,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="63">
-        <v>79444281</v>
+        <v>83341914</v>
       </c>
       <c r="B42" s="63">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42" s="63" t="s">
         <v>887</v>
@@ -10833,10 +10833,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="63">
-        <v>83786886</v>
+        <v>83341920</v>
       </c>
       <c r="B43" s="63">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C43" s="63" t="s">
         <v>887</v>
@@ -10847,10 +10847,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="63">
-        <v>83267743</v>
+        <v>79444281</v>
       </c>
       <c r="B44" s="63">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C44" s="63" t="s">
         <v>887</v>
@@ -10861,10 +10861,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="63">
-        <v>83342029</v>
+        <v>83786886</v>
       </c>
       <c r="B45" s="63">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C45" s="63" t="s">
         <v>887</v>
@@ -10874,14 +10874,14 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="63" t="s">
-        <v>808</v>
+      <c r="A46" s="63">
+        <v>83267743</v>
       </c>
       <c r="B46" s="63">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>803</v>
@@ -10889,10 +10889,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="63">
-        <v>83342018</v>
+        <v>83342029</v>
       </c>
       <c r="B47" s="63">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C47" s="63" t="s">
         <v>887</v>
@@ -10903,19 +10903,23 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="63">
-        <v>83994309</v>
+        <v>83342018</v>
       </c>
       <c r="B48" s="63">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D48" s="47" t="s">
         <v>803</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+    <sortCondition ref="D2:D48"/>
+    <sortCondition ref="C2:C48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -10926,7 +10930,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11102,7 +11106,7 @@
         <v>192.27668759811618</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I12" si="2">B11*B11*H11*G11</f>
+        <f t="shared" ref="I11" si="2">B11*B11*H11*G11</f>
         <v>6858894</v>
       </c>
     </row>
@@ -11129,7 +11133,7 @@
         <v>15253.076923076922</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G11:G12" si="3">(B12-C12)/B12</f>
+        <f t="shared" ref="G12" si="3">(B12-C12)/B12</f>
         <v>0.9341772151898734</v>
       </c>
       <c r="H12">
